--- a/mat/balloon.xlsx
+++ b/mat/balloon.xlsx
@@ -1,132 +1,965 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="28695" windowHeight="13155" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="303030"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:CA90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col min="1" max="1025" width="11.5166666666667"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:79">
       <c r="A1" s="1" t="b">
         <v>0</v>
       </c>
@@ -365,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:79">
       <c r="A2" s="1" t="b">
         <v>0</v>
       </c>
@@ -604,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:79">
       <c r="A3" s="1" t="b">
         <v>0</v>
       </c>
@@ -843,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:79">
       <c r="A4" s="1" t="b">
         <v>0</v>
       </c>
@@ -1082,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:79">
       <c r="A5" s="1" t="b">
         <v>0</v>
       </c>
@@ -1321,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:79">
       <c r="A6" s="1" t="b">
         <v>0</v>
       </c>
@@ -1560,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:79">
       <c r="A7" s="1" t="b">
         <v>0</v>
       </c>
@@ -1799,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:79">
       <c r="A8" s="1" t="b">
         <v>0</v>
       </c>
@@ -2038,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:79">
       <c r="A9" s="1" t="b">
         <v>0</v>
       </c>
@@ -2277,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:79">
       <c r="A10" s="1" t="b">
         <v>0</v>
       </c>
@@ -2516,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:79">
       <c r="A11" s="1" t="b">
         <v>0</v>
       </c>
@@ -2755,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:79">
       <c r="A12" s="1" t="b">
         <v>0</v>
       </c>
@@ -2994,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:79">
       <c r="A13" s="1" t="b">
         <v>0</v>
       </c>
@@ -3233,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:79">
       <c r="A14" s="1" t="b">
         <v>0</v>
       </c>
@@ -3472,7 +4305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:79">
       <c r="A15" s="1" t="b">
         <v>0</v>
       </c>
@@ -3711,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:79">
       <c r="A16" s="1" t="b">
         <v>0</v>
       </c>
@@ -3950,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:79">
       <c r="A17" s="1" t="b">
         <v>0</v>
       </c>
@@ -4189,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:79">
       <c r="A18" s="1" t="b">
         <v>0</v>
       </c>
@@ -4428,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:79">
       <c r="A19" s="1" t="b">
         <v>0</v>
       </c>
@@ -4667,7 +5500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:79">
       <c r="A20" s="1" t="b">
         <v>0</v>
       </c>
@@ -4906,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:79">
       <c r="A21" s="1" t="b">
         <v>0</v>
       </c>
@@ -5145,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:79">
       <c r="A22" s="1" t="b">
         <v>0</v>
       </c>
@@ -5384,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:79">
       <c r="A23" s="1" t="b">
         <v>0</v>
       </c>
@@ -5623,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:79">
       <c r="A24" s="1" t="b">
         <v>0</v>
       </c>
@@ -5862,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:79">
       <c r="A25" s="1" t="b">
         <v>0</v>
       </c>
@@ -6101,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:79">
       <c r="A26" s="1" t="b">
         <v>0</v>
       </c>
@@ -6340,7 +7173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:79">
       <c r="A27" s="1" t="b">
         <v>0</v>
       </c>
@@ -6579,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:79">
       <c r="A28" s="1" t="b">
         <v>0</v>
       </c>
@@ -6818,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:79">
       <c r="A29" s="1" t="b">
         <v>0</v>
       </c>
@@ -7006,7 +7839,7 @@
         <v>1</v>
       </c>
       <c r="BK29" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL29" s="1" t="b">
         <v>0</v>
@@ -7057,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:79">
       <c r="A30" s="1" t="b">
         <v>0</v>
       </c>
@@ -7296,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:79">
       <c r="A31" s="1" t="b">
         <v>0</v>
       </c>
@@ -7484,7 +8317,7 @@
         <v>1</v>
       </c>
       <c r="BK31" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL31" s="1" t="b">
         <v>0</v>
@@ -7535,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:79">
       <c r="A32" s="1" t="b">
         <v>0</v>
       </c>
@@ -7774,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:79">
       <c r="A33" s="1" t="b">
         <v>0</v>
       </c>
@@ -8013,7 +8846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:79">
       <c r="A34" s="1" t="b">
         <v>0</v>
       </c>
@@ -8252,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:79">
       <c r="A35" s="1" t="b">
         <v>0</v>
       </c>
@@ -8491,7 +9324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:79">
       <c r="A36" s="1" t="b">
         <v>0</v>
       </c>
@@ -8730,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:79">
       <c r="A37" s="1" t="b">
         <v>0</v>
       </c>
@@ -8969,7 +9802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:79">
       <c r="A38" s="1" t="b">
         <v>0</v>
       </c>
@@ -9208,7 +10041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:79">
       <c r="A39" s="1" t="b">
         <v>0</v>
       </c>
@@ -9447,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:79">
       <c r="A40" s="1" t="b">
         <v>0</v>
       </c>
@@ -9686,7 +10519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:79">
       <c r="A41" s="1" t="b">
         <v>0</v>
       </c>
@@ -9925,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:79">
       <c r="A42" s="1" t="b">
         <v>0</v>
       </c>
@@ -10164,7 +10997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:79">
       <c r="A43" s="1" t="b">
         <v>0</v>
       </c>
@@ -10403,7 +11236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:79">
       <c r="A44" s="1" t="b">
         <v>0</v>
       </c>
@@ -10642,7 +11475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:79">
       <c r="A45" s="1" t="b">
         <v>0</v>
       </c>
@@ -10881,7 +11714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:79">
       <c r="A46" s="1" t="b">
         <v>0</v>
       </c>
@@ -11120,7 +11953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:79">
       <c r="A47" s="1" t="b">
         <v>0</v>
       </c>
@@ -11359,7 +12192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:79">
       <c r="A48" s="1" t="b">
         <v>0</v>
       </c>
@@ -11598,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:79">
       <c r="A49" s="1" t="b">
         <v>0</v>
       </c>
@@ -11837,7 +12670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:79">
       <c r="A50" s="1" t="b">
         <v>0</v>
       </c>
@@ -12076,7 +12909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:79">
       <c r="A51" s="1" t="b">
         <v>0</v>
       </c>
@@ -12315,7 +13148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:79">
       <c r="A52" s="1" t="b">
         <v>0</v>
       </c>
@@ -12554,7 +13387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:79">
       <c r="A53" s="1" t="b">
         <v>0</v>
       </c>
@@ -12793,7 +13626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:79">
       <c r="A54" s="1" t="b">
         <v>0</v>
       </c>
@@ -13032,7 +13865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:79">
       <c r="A55" s="1" t="b">
         <v>0</v>
       </c>
@@ -13271,7 +14104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:79">
       <c r="A56" s="1" t="b">
         <v>0</v>
       </c>
@@ -13510,7 +14343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:79">
       <c r="A57" s="1" t="b">
         <v>0</v>
       </c>
@@ -13749,7 +14582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:79">
       <c r="A58" s="1" t="b">
         <v>0</v>
       </c>
@@ -13988,7 +14821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:79">
       <c r="A59" s="1" t="b">
         <v>0</v>
       </c>
@@ -14227,7 +15060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:79">
       <c r="A60" s="1" t="b">
         <v>0</v>
       </c>
@@ -14466,7 +15299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:79">
       <c r="A61" s="1" t="b">
         <v>0</v>
       </c>
@@ -14705,7 +15538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:79">
       <c r="A62" s="1" t="b">
         <v>0</v>
       </c>
@@ -14944,7 +15777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:79">
       <c r="A63" s="1" t="b">
         <v>0</v>
       </c>
@@ -15183,7 +16016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:79">
       <c r="A64" s="1" t="b">
         <v>0</v>
       </c>
@@ -15422,7 +16255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:79">
       <c r="A65" s="1" t="b">
         <v>0</v>
       </c>
@@ -15661,7 +16494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:79">
       <c r="A66" s="1" t="b">
         <v>0</v>
       </c>
@@ -15900,7 +16733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:79">
       <c r="A67" s="1" t="b">
         <v>0</v>
       </c>
@@ -16139,7 +16972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:79">
       <c r="A68" s="1" t="b">
         <v>0</v>
       </c>
@@ -16378,7 +17211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:79">
       <c r="A69" s="1" t="b">
         <v>0</v>
       </c>
@@ -16617,7 +17450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:79">
       <c r="A70" s="1" t="b">
         <v>0</v>
       </c>
@@ -16856,7 +17689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:79">
       <c r="A71" s="1" t="b">
         <v>0</v>
       </c>
@@ -17002,7 +17835,7 @@
         <v>1</v>
       </c>
       <c r="AW71" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX71" s="1" t="b">
         <v>0</v>
@@ -17095,7 +17928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:79">
       <c r="A72" s="1" t="b">
         <v>0</v>
       </c>
@@ -17334,7 +18167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:79">
       <c r="A73" s="1" t="b">
         <v>0</v>
       </c>
@@ -17573,7 +18406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:79">
       <c r="A74" s="1" t="b">
         <v>0</v>
       </c>
@@ -17812,7 +18645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:79">
       <c r="A75" s="1" t="b">
         <v>0</v>
       </c>
@@ -18051,7 +18884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:79">
       <c r="A76" s="1" t="b">
         <v>0</v>
       </c>
@@ -18290,7 +19123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:79">
       <c r="A77" s="1" t="b">
         <v>0</v>
       </c>
@@ -18529,7 +19362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:79">
       <c r="A78" s="1" t="b">
         <v>0</v>
       </c>
@@ -18768,7 +19601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:79">
       <c r="A79" s="1" t="b">
         <v>0</v>
       </c>
@@ -19007,7 +19840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:79">
       <c r="A80" s="1" t="b">
         <v>0</v>
       </c>
@@ -19246,7 +20079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:79">
       <c r="A81" s="1" t="b">
         <v>0</v>
       </c>
@@ -19389,7 +20222,7 @@
         <v>1</v>
       </c>
       <c r="AV81" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW81" s="1" t="b">
         <v>0</v>
@@ -19485,7 +20318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:79">
       <c r="A82" s="1" t="b">
         <v>0</v>
       </c>
@@ -19580,7 +20413,7 @@
         <v>0</v>
       </c>
       <c r="AF82" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG82" s="1" t="b">
         <v>1</v>
@@ -19724,7 +20557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:79">
       <c r="A83" s="1" t="b">
         <v>0</v>
       </c>
@@ -19963,7 +20796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:79">
       <c r="A84" s="1" t="b">
         <v>0</v>
       </c>
@@ -20202,7 +21035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:79">
       <c r="A85" s="1" t="b">
         <v>0</v>
       </c>
@@ -20441,7 +21274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:79">
       <c r="A86" s="1" t="b">
         <v>0</v>
       </c>
@@ -20680,7 +21513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:79">
       <c r="A87" s="1" t="b">
         <v>0</v>
       </c>
@@ -20919,7 +21752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:79">
       <c r="A88" s="1" t="b">
         <v>0</v>
       </c>
@@ -21158,7 +21991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:79">
       <c r="A89" s="1" t="b">
         <v>0</v>
       </c>
@@ -21397,7 +22230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:79">
       <c r="A90" s="1" t="b">
         <v>0</v>
       </c>
@@ -21637,10 +22470,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
